--- a/Docs/需求/(正式6)範本專家資料匯入 (0425講訓、環資新增) +(0423,26低碳).xlsx
+++ b/Docs/需求/(正式6)範本專家資料匯入 (0425講訓、環資新增) +(0423,26低碳).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\新增專家委員\33給資訊室資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64B4F5-5522-437A-8A26-417E663B38AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF09EED-2CF1-4A35-A863-E748188F94D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{38A5F465-6D7B-4A20-8374-32BA6B861B92}"/>
   </bookViews>
   <sheets>
     <sheet name="0425新增" sheetId="5" r:id="rId1"/>
@@ -155,30 +155,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(辦公)縣市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(辦公)鄉鎮市區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(住家)縣市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(住家)鄉鎮市區</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(辦公)地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(住家)地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>業主_</t>
     </r>
@@ -490,8 +466,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>辦公室電話
-格式</t>
+      <t>專長代號</t>
     </r>
     <r>
       <rPr>
@@ -499,20 +474,264 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(02-23****** #123)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>手機號碼
-格式</t>
+      <t>_SubjectDetailId</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>陳海曙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李姿瑩</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>江康鈺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃益助</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宋浚泙</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張鼎旺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>劉敏信</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蔡勇斌</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>袁紹英</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>許正一</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學者</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在職</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國立臺灣大學農業化學系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>王聖瑋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淡江大學水資源及環境工程系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>助理教授</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>李美慧</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>女</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>在職</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淡江大學建築學系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D3</t>
     </r>
     <r>
       <rPr>
@@ -520,20 +739,157 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(0912******)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">傳真
-</t>
+      <t>,D4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>黃世孟</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>男</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>業界專家</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>社團法人台灣衛浴文化協會</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名譽理事長</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靳燕玲</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公務人員</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內政部建築研究所</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>副研究員</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>程湘如</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頑石文創開發顧問公司</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>創辦人暨創意總監</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宋立垚</t>
     </r>
     <r>
       <rPr>
@@ -541,22 +897,497 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(02-23****** #123)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>辦公</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國立臺北科技大學建築系暨建築與都市設計研究所</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>兼任副教授</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張明添</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國立中興大學土木系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>半票</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>楊欽銘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公務人員</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>退休</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>前行政院公共工程委員會</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>技正</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>林利國</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>臺北科技大學土木與防災研究所</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>教授</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄭宗淋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>簡任技正</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鄭光炎</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>前台北科技大學土木系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>副教授</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>簡俊明</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>前行政院九二一重建會公共建設處</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>副處長</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>賴俊仁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專家</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不吃豬肉</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>楊佩玉</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>吳榮康</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>台鎔科技材料股份有限公司</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>董事長室主任</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>環境部環境管理署</t>
+  </si>
+  <si>
+    <t>經濟部產業發展署</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C35</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-3466601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-77323399#7227</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-23323000#7491</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-77134828</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-23778167</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27712171#2646</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-26562239</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">04-22840438#226  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-23938101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-89127890#323</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-26215656#3846</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-33664823</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0939980322</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0932762722</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0935873279</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0934287676</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>特聘教授</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>助理教授</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>思納捷科技股份有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>低碳事業處</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資深碳管理顧問經理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>私立朝陽科技大學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>環境工程與管理系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27947303</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>羅斯福路四段</t>
     </r>
     <r>
       <rPr>
@@ -564,20 +1395,33 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)Email</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">備註
-</t>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>土壤調查與整治研究室</t>
     </r>
     <r>
       <rPr>
@@ -594,7 +1438,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>如葷素</t>
+      <t>土壤博物館</t>
     </r>
     <r>
       <rPr>
@@ -602,19 +1446,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專長代號</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
     </r>
     <r>
       <rPr>
@@ -622,264 +1463,31 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>_SubjectDetailId</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>陳海曙</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李姿瑩</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>江康鈺</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃益助</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宋浚泙</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張鼎旺</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>劉敏信</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蔡勇斌</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>袁紹英</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>許正一</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>學者</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在職</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>國立臺灣大學農業化學系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>王聖瑋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>淡江大學水資源及環境工程系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>助理教授</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>李美慧</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>女</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>學者</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在職</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>淡江大學建築學系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>D3</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺北市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大安區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>英專路</t>
     </r>
     <r>
       <rPr>
@@ -887,157 +1495,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>,D4</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>黃世孟</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>男</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>業界專家</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>社團法人台灣衛浴文化協會</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>名譽理事長</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>靳燕玲</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公務人員</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內政部建築研究所</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>副研究員</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>程湘如</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>頑石文創開發顧問公司</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>創辦人暨創意總監</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>宋立垚</t>
+      <t>151</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
     </r>
     <r>
       <rPr>
@@ -1047,495 +1514,30 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>國立臺北科技大學建築系暨建築與都市設計研究所</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>兼任副教授</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張明添</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>國立中興大學土木系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>半票</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>楊欽銘</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>公務人員</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>退休</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>前行政院公共工程委員會</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>技正</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>林利國</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>臺北科技大學土木與防災研究所</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>教授</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鄭宗淋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>簡任技正</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鄭光炎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>前台北科技大學土木系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>副教授</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>簡俊明</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>前行政院九二一重建會公共建設處</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>副處長</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>賴俊仁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專家</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不吃豬肉</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>楊佩玉</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>女</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>吳榮康</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>台鎔科技材料股份有限公司</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>董事長室主任</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>環境部環境管理署</t>
-  </si>
-  <si>
-    <t>經濟部產業發展署</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水環系辦公室</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡水區</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-3466601</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-77323399#7227</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-23323000#7491</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-77134828</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-23778167</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-27712171#2646</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-26562239</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">04-22840438#226  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-23938101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-89127890#323</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-26215656#3846</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-33664823</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0939980322</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0932762722</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0935873279</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0934287676</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>特聘教授</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>助理教授</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>思納捷科技股份有限公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>低碳事業處</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>資深碳管理顧問經理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>私立朝陽科技大學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>環境工程與管理系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-27947303</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>羅斯福路四段</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>英專路</t>
     </r>
     <r>
       <rPr>
@@ -1543,7 +1545,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1</t>
+      <t>151</t>
     </r>
     <r>
       <rPr>
@@ -1553,23 +1555,6 @@
         <charset val="136"/>
       </rPr>
       <t>號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="4"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>土壤調查與整治研究室</t>
     </r>
     <r>
       <rPr>
@@ -1577,16 +1562,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>土壤博物館</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建築學系</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新生南路一段</t>
     </r>
     <r>
       <rPr>
@@ -1594,16 +1595,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓</t>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
     </r>
     <r>
       <rPr>
@@ -1611,31 +1612,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>臺北市</t>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中正區</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>大安區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>英專路</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>南京東路二段</t>
     </r>
     <r>
       <rPr>
@@ -1643,7 +1645,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>151</t>
+      <t>23</t>
     </r>
     <r>
       <rPr>
@@ -1660,32 +1662,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>水環系辦公室</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淡水區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>英專路</t>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓之</t>
     </r>
     <r>
       <rPr>
@@ -1693,16 +1679,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>151</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忠孝東路三段一號</t>
     </r>
     <r>
       <rPr>
@@ -1710,32 +1699,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>建築學系</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中山區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>新生南路一段</t>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建築系</t>
     </r>
     <r>
       <rPr>
@@ -1743,16 +1716,19 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國光路</t>
     </r>
     <r>
       <rPr>
@@ -1760,32 +1736,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中正區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>南京東路二段</t>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號（國立中興大學土木系</t>
     </r>
     <r>
       <rPr>
@@ -1793,16 +1753,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
+      <t>226</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>室）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺中市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內湖路一段</t>
     </r>
     <r>
       <rPr>
@@ -1810,16 +1790,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓之</t>
+      <t>681</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>巷</t>
     </r>
     <r>
       <rPr>
@@ -1827,19 +1807,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>忠孝東路三段一號</t>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
     </r>
     <r>
       <rPr>
@@ -1847,16 +1824,36 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>建築系</t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內湖區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝東路三段一號（臺北科技大學土木工程系）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>嘉興街</t>
     </r>
     <r>
       <rPr>
@@ -1864,19 +1861,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>國光路</t>
+      <t>322</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
     </r>
     <r>
       <rPr>
@@ -1884,16 +1878,23 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>250</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號（國立中興大學土木系</t>
+      <t>9F-1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信義區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圓通路</t>
     </r>
     <r>
       <rPr>
@@ -1901,36 +1902,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>226</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>室）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>臺中市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內湖路一段</t>
+      <t>295-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
     </r>
     <r>
       <rPr>
@@ -1938,16 +1919,32 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>681</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>巷</t>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>樓</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中和區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>民生東路四段</t>
     </r>
     <r>
       <rPr>
@@ -1955,7 +1952,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>10</t>
+      <t>133</t>
     </r>
     <r>
       <rPr>
@@ -1981,27 +1978,7 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>樓</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>內湖區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>忠孝東路三段一號（臺北科技大學土木工程系）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>嘉興街</t>
+      <t>樓之</t>
     </r>
     <r>
       <rPr>
@@ -2009,16 +1986,27 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>322</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
+      <t>9</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松山區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>霧峰區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>霧峰鄉吉峰東路</t>
     </r>
     <r>
       <rPr>
@@ -2026,23 +2014,28 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>9F-1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信義區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>圓通路</t>
+      <t>168</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中正路</t>
     </r>
     <r>
       <rPr>
@@ -2050,7 +2043,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>295-5</t>
+      <t>1088</t>
     </r>
     <r>
       <rPr>
@@ -2067,7 +2060,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>7</t>
+      <t>11</t>
     </r>
     <r>
       <rPr>
@@ -2081,18 +2074,66 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中和區</t>
+    <t>桃園市</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>民生東路四段</t>
+    <t>桃園區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞光路26巷20弄1號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁愛路三段51巷8號5樓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西路二段76巷14號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>D17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>D16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單筆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>專案</t>
     </r>
     <r>
       <rPr>
@@ -2100,16 +2141,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>133</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>填寫代碼</t>
     </r>
     <r>
       <rPr>
@@ -2117,16 +2158,632 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓之</t>
+      <t>)_FtisProjectId</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕭力升</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>業界專家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在職</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立鈺環保科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技師</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-24732282</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912037879</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u712140@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺中市</t>
+  </si>
+  <si>
+    <t>南昌街26號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林正雄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄材大智材料科技股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>總經理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-87516466</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918296607</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺北市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洲子街12號3樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>賴雲昇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立昇量子纖維股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>副總經理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-25626669</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0910413428</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神岡區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄前路70之1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉慶得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能揚興業有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07-7352467</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0912713665</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07-7353779</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>鳥松區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水管路661-1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗津區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中洲二路4-1號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭維仁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>復盛股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>經理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-29951411</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0939330978</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-29950649</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>william.kuo@fusheng.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三重區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>光復路二段60號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北新路119巷3號4樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳信昌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>華億通風有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-85122229</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0936059593</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-22781687</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hwayi.thomas@msa.hinet.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>新北大道二段260號11樓之5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新店區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安康路二段159巷1號13樓之3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王明志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾可智能．綠智慧股份有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-4272786</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0987320298</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>03-4272980</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dream@ecosmart.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中壢區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>環北路398號12樓之3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生路二段319巷61號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳守仁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碩晟科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-86489385</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0911846373</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuocheng.sales@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汐止區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄苳路99號11樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李建男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>煜鑫科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>04-22155933</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0917175478</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>newman@visiontek.com.tw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>東區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>東英路56巷21號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳漢明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>殷聖工程有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-7523006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0928725603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insheng@ms68.hinet.net</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東縣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大洲里經建路6號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李建和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈞能實業有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07-8214538</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>08-232238</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前鎮區</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>擴建路1之21號2樓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊正浩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>旭珈有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>顧問</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-27211600</t>
+  </si>
+  <si>
+    <t>0910309269</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ryan@eview.com.tw</t>
+  </si>
+  <si>
+    <t>華陰街26號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4, A8, A14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低碳策略與技術服務組</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>經濟部產業發展署</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2,C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3,C11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2,C3,C21,C22,C23,C24,C27,D4,D5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3,C19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1,D2,D3,D4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝建德</t>
+  </si>
+  <si>
+    <t>學者</t>
+  </si>
+  <si>
+    <t>元智大學化學工程與材料科學系</t>
+  </si>
+  <si>
+    <t>教授</t>
+  </si>
+  <si>
+    <t>段柔勇</t>
+  </si>
+  <si>
+    <t>退休</t>
+  </si>
+  <si>
+    <t>弘光科技大學環境與安全衛生工程系</t>
+  </si>
+  <si>
+    <t>林聖豪</t>
+  </si>
+  <si>
+    <t>淡江大學企業管理學系</t>
+  </si>
+  <si>
+    <t>講師</t>
+  </si>
+  <si>
+    <t>陳麗娟</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>淡江大學外交與國際關係學系</t>
+  </si>
+  <si>
+    <t>cthsieh@saturn.yzu.edu.tw</t>
+  </si>
+  <si>
+    <t>davidtku2017@gmail.com</t>
+  </si>
+  <si>
+    <t>chen0909@mail.tku.edu.tw</t>
+  </si>
+  <si>
+    <t>03-4638800 #2577</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-26215656#2960</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920731839</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠東路135號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>南投縣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中正路二段356~2號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>國姓鄉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英專路151號</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A10,C7, C13</t>
+  </si>
+  <si>
+    <t>低碳策略與技術服務組</t>
+  </si>
+  <si>
+    <t>D4,D5,D6,D7</t>
+  </si>
+  <si>
+    <t>F6,G5</t>
+  </si>
+  <si>
+    <t>A16,C23,C24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0978081858</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公室電話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_OfficePhone</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>手機號碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_PrivatePhone</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傳真</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="4"/>
+      </rPr>
+      <t>_Fax</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>辦公</t>
     </r>
     <r>
       <rPr>
@@ -2134,27 +2791,43 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>9</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>松山區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>霧峰區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>霧峰鄉吉峰東路</t>
+      <t>)Email_OfficeEmail</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(辦公)縣市_CityCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(辦公)鄉鎮市區_ZIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(辦公)地址_OfficeAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(住家)縣市_PCityCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(住家)鄉鎮市區_PZIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(住家)地址_Paddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>備註</t>
     </r>
     <r>
       <rPr>
@@ -2162,28 +2835,16 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>168</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中正路</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如葷素</t>
     </r>
     <r>
       <rPr>
@@ -2191,674 +2852,9 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>1088</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>樓</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑞光路26巷20弄1號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>仁愛路三段51巷8號5樓</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山西路二段76巷14號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>北區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>B39</t>
-  </si>
-  <si>
-    <t>D16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單筆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>填寫代碼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)_FtisProjectId</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕭力升</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>業界專家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在職</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>立鈺環保科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技師</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-24732282</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0912037879</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>u712140@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>臺中市</t>
-  </si>
-  <si>
-    <t>南昌街26號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林正雄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雄材大智材料科技股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>總經理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-87516466</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0918296607</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>臺北市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洲子街12號3樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>賴雲昇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>立昇量子纖維股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>副總經理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-25626669</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0910413428</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神岡區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄前路70之1號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>葉慶得</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能揚興業有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07-7352467</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0912713665</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07-7353779</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高雄市</t>
-  </si>
-  <si>
-    <t>鳥松區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>水管路661-1號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旗津區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中洲二路4-1號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭維仁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>復盛股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>經理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-29951411</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0939330978</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-29950649</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>william.kuo@fusheng.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三重區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>光復路二段60號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北新路119巷3號4樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳信昌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>華億通風有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-85122229</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0936059593</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-22781687</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hwayi.thomas@msa.hinet.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新北市</t>
-  </si>
-  <si>
-    <t>新北大道二段260號11樓之5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新店區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>安康路二段159巷1號13樓之3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王明志</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾可智能．綠智慧股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-4272786</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0987320298</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03-4272980</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dream@ecosmart.com.tw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中壢區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>環北路398號12樓之3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新生路二段319巷61號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳守仁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碩晟科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-86489385</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0911846373</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuocheng.sales@gmail.com</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汐止區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>茄苳路99號11樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李建男</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>煜鑫科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>04-22155933</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0917175478</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>newman@visiontek.com.tw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>東區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>東英路56巷21號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吳漢明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>殷聖工程有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-7523006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0928725603</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>insheng@ms68.hinet.net</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏東縣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏東市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>大洲里經建路6號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李建和</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鈞能實業有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>07-8214538</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>08-232238</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前鎮區</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>擴建路1之21號2樓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>楊正浩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旭珈有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>顧問</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-27211600</t>
-  </si>
-  <si>
-    <t>0910309269</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ryan@eview.com.tw</t>
-  </si>
-  <si>
-    <t>華陰街26號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4, A8, A14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>低碳策略與技術服務組</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>經濟部產業發展署</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>A10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2,C3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C18</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3,C11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2,C3,C21,C22,C23,C24,C27,D4,D5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3,C19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1,D2,D3,D4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>謝建德</t>
-  </si>
-  <si>
-    <t>學者</t>
-  </si>
-  <si>
-    <t>元智大學化學工程與材料科學系</t>
-  </si>
-  <si>
-    <t>教授</t>
-  </si>
-  <si>
-    <t>段柔勇</t>
-  </si>
-  <si>
-    <t>退休</t>
-  </si>
-  <si>
-    <t>弘光科技大學環境與安全衛生工程系</t>
-  </si>
-  <si>
-    <t>林聖豪</t>
-  </si>
-  <si>
-    <t>淡江大學企業管理學系</t>
-  </si>
-  <si>
-    <t>講師</t>
-  </si>
-  <si>
-    <t>陳麗娟</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>淡江大學外交與國際關係學系</t>
-  </si>
-  <si>
-    <t>cthsieh@saturn.yzu.edu.tw</t>
-  </si>
-  <si>
-    <t>davidtku2017@gmail.com</t>
-  </si>
-  <si>
-    <t>chen0909@mail.tku.edu.tw</t>
-  </si>
-  <si>
-    <t>03-4638800 #2577</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-26215656#2960</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0920731839</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠東路135號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>南投縣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中正路二段356~2號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>國姓鄉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>英專路151號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A10,C7, C13</t>
-  </si>
-  <si>
-    <t>低碳策略與技術服務組</t>
-  </si>
-  <si>
-    <t>D4,D5,D6,D7</t>
-  </si>
-  <si>
-    <t>F6,G5</t>
-  </si>
-  <si>
-    <t>A16,C23,C24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>教授</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0978081858</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>)_Note</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2996,7 +2992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3048,12 +3044,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3101,6 +3091,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3492,52 +3491,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89D56AA-2212-4939-986A-F8D5C1531DF4}">
   <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J77" sqref="J77"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.75" style="26" customWidth="1"/>
-    <col min="2" max="2" width="6" style="27" customWidth="1"/>
-    <col min="3" max="4" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="45.375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.875" style="28" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="31" customWidth="1"/>
-    <col min="11" max="12" width="16.875" style="28" customWidth="1"/>
-    <col min="13" max="14" width="16.875" style="29" customWidth="1"/>
-    <col min="15" max="15" width="36" style="30" customWidth="1"/>
-    <col min="16" max="17" width="16.875" style="29" customWidth="1"/>
-    <col min="18" max="19" width="16.875" style="30" customWidth="1"/>
-    <col min="20" max="20" width="19.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="35.125" style="27" customWidth="1"/>
-    <col min="22" max="23" width="50.125" style="26" customWidth="1"/>
-    <col min="24" max="24" width="27.75" style="26" customWidth="1"/>
-    <col min="25" max="25" width="48.5" style="27" customWidth="1"/>
-    <col min="26" max="26" width="21.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="10.7265625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="6" style="25" customWidth="1"/>
+    <col min="3" max="4" width="10.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.36328125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.90625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="16.90625" style="29" customWidth="1"/>
+    <col min="11" max="12" width="16.90625" style="26" customWidth="1"/>
+    <col min="13" max="14" width="16.90625" style="27" customWidth="1"/>
+    <col min="15" max="15" width="36" style="28" customWidth="1"/>
+    <col min="16" max="17" width="16.90625" style="27" customWidth="1"/>
+    <col min="18" max="19" width="16.90625" style="28" customWidth="1"/>
+    <col min="20" max="20" width="19.7265625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="35.08984375" style="25" customWidth="1"/>
+    <col min="22" max="23" width="50.08984375" style="24" customWidth="1"/>
+    <col min="24" max="24" width="27.7265625" style="24" customWidth="1"/>
+    <col min="25" max="25" width="48.453125" style="25" customWidth="1"/>
+    <col min="26" max="26" width="21.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.36328125" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="18" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3546,46 +3545,46 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>336</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>337</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>9</v>
+        <v>339</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>340</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>7</v>
+        <v>341</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>342</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>344</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>2</v>
@@ -3594,839 +3593,839 @@
         <v>3</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y1" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="16">
         <f>SUBTOTAL(3,$C2:C$2)*1</f>
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="15" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="8"/>
       <c r="S2" s="1"/>
       <c r="T2" s="10" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X2" s="6">
         <v>112</v>
       </c>
-      <c r="Y2" s="23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="16">
         <f>SUBTOTAL(3,$C$2:C3)*1</f>
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>215</v>
-      </c>
       <c r="J3" s="11" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="13"/>
       <c r="M3" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="8"/>
       <c r="S3" s="1"/>
       <c r="T3" s="10" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X3" s="6">
         <v>112</v>
       </c>
-      <c r="Y3" s="23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y3" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="16">
         <f>SUBTOTAL(3,$C$2:C4)*1</f>
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="13"/>
       <c r="M4" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="8"/>
       <c r="S4" s="1"/>
       <c r="T4" s="10" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X4" s="6">
         <v>112</v>
       </c>
-      <c r="Y4" s="23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y4" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="16">
         <f>SUBTOTAL(3,$C$2:C5)*1</f>
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="I5" s="10" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="10" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X5" s="6">
         <v>112</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="16">
         <f>SUBTOTAL(3,$C$2:C6)*1</f>
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="10" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X6" s="6">
         <v>112</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16"/>
       <c r="B7" s="16">
         <f>SUBTOTAL(3,$C$2:C7)*1</f>
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="I7" s="10" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="R7" s="8" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="12" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X7" s="6">
         <v>112</v>
       </c>
       <c r="Y7" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="16"/>
       <c r="B8" s="16">
         <f>SUBTOTAL(3,$C$2:C8)*1</f>
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="I8" s="10" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="10" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X8" s="6">
         <v>112</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="16">
         <f>SUBTOTAL(3,$C$2:C9)*1</f>
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="I9" s="10" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="10" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="8"/>
       <c r="S9" s="1"/>
       <c r="T9" s="10" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X9" s="6">
         <v>112</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16"/>
       <c r="B10" s="16">
         <f>SUBTOTAL(3,$C$2:C10)*1</f>
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="10" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="8"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="34" t="s">
-        <v>309</v>
+      <c r="T10" s="32" t="s">
+        <v>298</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X10" s="6">
         <v>112</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="16"/>
       <c r="B11" s="16">
         <f>SUBTOTAL(3,$C$2:C11)*1</f>
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="I11" s="10" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="10" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="8"/>
       <c r="S11" s="1"/>
       <c r="T11" s="10" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X11" s="6">
         <v>112</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="16">
         <f>SUBTOTAL(3,$C$2:C12)*1</f>
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="10" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="L12" s="12"/>
       <c r="M12" s="5" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="8"/>
       <c r="S12" s="1"/>
       <c r="T12" s="10" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X12" s="6">
         <v>112</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16"/>
       <c r="B13" s="16">
         <f>SUBTOTAL(3,$C$2:C13)*1</f>
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="10" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="8"/>
       <c r="S13" s="1"/>
       <c r="T13" s="12" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="X13" s="6">
         <v>112</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
       <c r="B14" s="16">
         <f>SUBTOTAL(3,$C$2:C14)*1</f>
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -4446,29 +4445,29 @@
       <c r="S14" s="8"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X14" s="6">
         <v>111</v>
       </c>
       <c r="Y14" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="19"/>
       <c r="B15" s="16">
         <f>SUBTOTAL(3,$C$2:C15)*1</f>
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -4488,29 +4487,29 @@
       <c r="S15" s="8"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X15" s="6">
         <v>112</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
       <c r="B16" s="16">
         <f>SUBTOTAL(3,$C$2:C16)*1</f>
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -4530,29 +4529,29 @@
       <c r="S16" s="8"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X16" s="6">
         <v>113</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="19"/>
       <c r="B17" s="16">
         <f>SUBTOTAL(3,$C$2:C17)*1</f>
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -4572,29 +4571,29 @@
       <c r="S17" s="8"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X17" s="6">
         <v>111</v>
       </c>
       <c r="Y17" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
       <c r="B18" s="16">
         <f>SUBTOTAL(3,$C$2:C18)*1</f>
         <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -4614,29 +4613,29 @@
       <c r="S18" s="8"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X18" s="6">
         <v>112</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="19"/>
       <c r="B19" s="16">
         <f>SUBTOTAL(3,$C$2:C19)*1</f>
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -4656,29 +4655,29 @@
       <c r="S19" s="8"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X19" s="6">
         <v>113</v>
       </c>
       <c r="Y19" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="19"/>
       <c r="B20" s="16">
         <f>SUBTOTAL(3,$C$2:C20)*1</f>
         <v>19</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -4698,29 +4697,29 @@
       <c r="S20" s="8"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X20" s="6">
         <v>111</v>
       </c>
       <c r="Y20" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="19"/>
       <c r="B21" s="16">
         <f>SUBTOTAL(3,$C$2:C21)*1</f>
         <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -4740,29 +4739,29 @@
       <c r="S21" s="8"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X21" s="6">
         <v>112</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="19"/>
       <c r="B22" s="16">
         <f>SUBTOTAL(3,$C$2:C22)*1</f>
         <v>21</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -4782,29 +4781,29 @@
       <c r="S22" s="8"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X22" s="6">
         <v>113</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="19"/>
       <c r="B23" s="16">
         <f>SUBTOTAL(3,$C$2:C23)*1</f>
         <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -4824,29 +4823,29 @@
       <c r="S23" s="8"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X23" s="6">
         <v>111</v>
       </c>
       <c r="Y23" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="19"/>
       <c r="B24" s="16">
         <f>SUBTOTAL(3,$C$2:C24)*1</f>
         <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -4866,29 +4865,29 @@
       <c r="S24" s="8"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X24" s="6">
         <v>112</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="19"/>
       <c r="B25" s="16">
         <f>SUBTOTAL(3,$C$2:C25)*1</f>
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -4908,29 +4907,29 @@
       <c r="S25" s="8"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X25" s="6">
         <v>113</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="19"/>
       <c r="B26" s="16">
         <f>SUBTOTAL(3,$C$2:C26)*1</f>
         <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -4950,29 +4949,29 @@
       <c r="S26" s="8"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X26" s="6">
         <v>111</v>
       </c>
       <c r="Y26" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="19"/>
       <c r="B27" s="16">
         <f>SUBTOTAL(3,$C$2:C27)*1</f>
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -4992,29 +4991,29 @@
       <c r="S27" s="8"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X27" s="6">
         <v>112</v>
       </c>
       <c r="Y27" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="19"/>
       <c r="B28" s="16">
         <f>SUBTOTAL(3,$C$2:C28)*1</f>
         <v>27</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -5034,29 +5033,29 @@
       <c r="S28" s="8"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X28" s="6">
         <v>113</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="19"/>
       <c r="B29" s="16">
         <f>SUBTOTAL(3,$C$2:C29)*1</f>
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -5076,29 +5075,29 @@
       <c r="S29" s="8"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X29" s="6">
         <v>111</v>
       </c>
       <c r="Y29" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="19"/>
       <c r="B30" s="16">
         <f>SUBTOTAL(3,$C$2:C30)*1</f>
         <v>29</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -5118,29 +5117,29 @@
       <c r="S30" s="8"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X30" s="6">
         <v>112</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="19"/>
       <c r="B31" s="16">
         <f>SUBTOTAL(3,$C$2:C31)*1</f>
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -5160,29 +5159,29 @@
       <c r="S31" s="8"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X31" s="6">
         <v>113</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="19"/>
       <c r="B32" s="16">
         <f>SUBTOTAL(3,$C$2:C32)*1</f>
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -5202,29 +5201,29 @@
       <c r="S32" s="8"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X32" s="6">
         <v>111</v>
       </c>
       <c r="Y32" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="19"/>
       <c r="B33" s="16">
         <f>SUBTOTAL(3,$C$2:C33)*1</f>
         <v>32</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -5244,29 +5243,29 @@
       <c r="S33" s="8"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V33" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X33" s="6">
         <v>112</v>
       </c>
       <c r="Y33" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="19"/>
       <c r="B34" s="16">
         <f>SUBTOTAL(3,$C$2:C34)*1</f>
         <v>33</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -5286,29 +5285,29 @@
       <c r="S34" s="8"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X34" s="6">
         <v>113</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="19"/>
       <c r="B35" s="16">
         <f>SUBTOTAL(3,$C$2:C35)*1</f>
         <v>34</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -5328,29 +5327,29 @@
       <c r="S35" s="8"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X35" s="6">
         <v>112</v>
       </c>
       <c r="Y35" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="19"/>
       <c r="B36" s="16">
         <f>SUBTOTAL(3,$C$2:C36)*1</f>
         <v>35</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -5370,29 +5369,29 @@
       <c r="S36" s="8"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X36" s="6">
         <v>113</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="19"/>
       <c r="B37" s="16">
         <f>SUBTOTAL(3,$C$2:C37)*1</f>
         <v>36</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -5412,29 +5411,29 @@
       <c r="S37" s="8"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X37" s="6">
         <v>111</v>
       </c>
       <c r="Y37" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="19"/>
       <c r="B38" s="16">
         <f>SUBTOTAL(3,$C$2:C38)*1</f>
         <v>37</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -5454,29 +5453,29 @@
       <c r="S38" s="8"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X38" s="6">
         <v>112</v>
       </c>
       <c r="Y38" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="19"/>
       <c r="B39" s="16">
         <f>SUBTOTAL(3,$C$2:C39)*1</f>
         <v>38</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -5496,283 +5495,283 @@
       <c r="S39" s="8"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X39" s="6">
         <v>113</v>
       </c>
       <c r="Y39" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="19"/>
       <c r="B40" s="16">
         <f>SUBTOTAL(3,$C$2:C40)*1</f>
         <v>39</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J40" s="14"/>
       <c r="K40" s="12"/>
       <c r="L40" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U40" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X40" s="6">
         <v>113</v>
       </c>
       <c r="Y40" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="19"/>
       <c r="B41" s="16">
         <f>SUBTOTAL(3,$C$2:C41)*1</f>
         <v>40</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I41" s="6"/>
-      <c r="J41" s="25"/>
+      <c r="J41" s="23"/>
       <c r="K41" s="12"/>
       <c r="L41" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="U41" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X41" s="6">
         <v>113</v>
       </c>
       <c r="Y41" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="19"/>
       <c r="B42" s="16">
         <f>SUBTOTAL(3,$C$2:C42)*1</f>
         <v>41</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J42" s="25"/>
+        <v>139</v>
+      </c>
+      <c r="J42" s="23"/>
       <c r="K42" s="12"/>
       <c r="L42" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="U42" s="24" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="U42" s="22" t="s">
+        <v>82</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W42" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X42" s="6">
         <v>113</v>
       </c>
       <c r="Y42" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="19"/>
       <c r="B43" s="16">
         <f>SUBTOTAL(3,$C$2:C43)*1</f>
         <v>42</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I43" s="6"/>
-      <c r="J43" s="25" t="s">
-        <v>155</v>
+      <c r="J43" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="K43" s="12"/>
       <c r="L43" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X43" s="6">
         <v>111</v>
       </c>
       <c r="Y43" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="19"/>
       <c r="B44" s="16">
         <f>SUBTOTAL(3,$C$2:C44)*1</f>
         <v>43</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -5780,7 +5779,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="25"/>
+      <c r="J44" s="23"/>
       <c r="K44" s="12"/>
       <c r="L44" s="6"/>
       <c r="M44" s="5"/>
@@ -5792,29 +5791,29 @@
       <c r="S44" s="8"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X44" s="6">
         <v>112</v>
       </c>
       <c r="Y44" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="19"/>
       <c r="B45" s="16">
         <f>SUBTOTAL(3,$C$2:C45)*1</f>
         <v>44</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -5822,7 +5821,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
-      <c r="J45" s="25"/>
+      <c r="J45" s="23"/>
       <c r="K45" s="12"/>
       <c r="L45" s="6"/>
       <c r="M45" s="5"/>
@@ -5834,52 +5833,52 @@
       <c r="S45" s="8"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X45" s="6">
         <v>113</v>
       </c>
       <c r="Y45" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="19"/>
       <c r="B46" s="16">
         <f>SUBTOTAL(3,$C$2:C46)*1</f>
         <v>45</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="F46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G46" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="I46" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J46" s="25"/>
+        <v>138</v>
+      </c>
+      <c r="J46" s="23"/>
       <c r="K46" s="12"/>
       <c r="L46" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -5889,164 +5888,164 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
       <c r="T46" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X46" s="6">
         <v>113</v>
       </c>
       <c r="Y46" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="19"/>
       <c r="B47" s="16">
         <f>SUBTOTAL(3,$C$2:C47)*1</f>
         <v>46</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="K47" s="12"/>
       <c r="L47" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="8"/>
       <c r="S47" s="8"/>
       <c r="T47" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="V47" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X47" s="6">
         <v>113</v>
       </c>
       <c r="Y47" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="19"/>
       <c r="B48" s="16">
         <f>SUBTOTAL(3,$C$2:C48)*1</f>
         <v>47</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X48" s="6">
         <v>111</v>
       </c>
       <c r="Y48" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="19"/>
       <c r="B49" s="16">
         <f>SUBTOTAL(3,$C$2:C49)*1</f>
         <v>48</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -6054,7 +6053,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
-      <c r="J49" s="25"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="12"/>
       <c r="L49" s="6"/>
       <c r="M49" s="5"/>
@@ -6066,29 +6065,29 @@
       <c r="S49" s="8"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X49" s="6">
         <v>112</v>
       </c>
       <c r="Y49" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="19"/>
       <c r="B50" s="16">
         <f>SUBTOTAL(3,$C$2:C50)*1</f>
         <v>49</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -6096,7 +6095,7 @@
       <c r="G50" s="12"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="25"/>
+      <c r="J50" s="23"/>
       <c r="K50" s="12"/>
       <c r="L50" s="6"/>
       <c r="M50" s="5"/>
@@ -6108,97 +6107,97 @@
       <c r="S50" s="8"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X50" s="6">
         <v>113</v>
       </c>
       <c r="Y50" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="19"/>
       <c r="B51" s="16">
         <f>SUBTOTAL(3,$C$2:C51)*1</f>
         <v>50</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>34</v>
+        <v>136</v>
+      </c>
+      <c r="J51" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P51" s="23"/>
+        <v>163</v>
+      </c>
+      <c r="P51" s="21"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="8"/>
-      <c r="S51" s="23" t="s">
-        <v>111</v>
+      <c r="S51" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X51" s="6">
         <v>111</v>
       </c>
       <c r="Y51" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="19"/>
       <c r="B52" s="16">
         <f>SUBTOTAL(3,$C$2:C52)*1</f>
         <v>51</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -6206,41 +6205,41 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="25"/>
+      <c r="J52" s="23"/>
       <c r="K52" s="12"/>
       <c r="L52" s="15"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="23"/>
+      <c r="P52" s="21"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="8"/>
-      <c r="S52" s="23"/>
+      <c r="S52" s="21"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X52" s="6">
         <v>112</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="19"/>
       <c r="B53" s="16">
         <f>SUBTOTAL(3,$C$2:C53)*1</f>
         <v>52</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6248,109 +6247,109 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
-      <c r="J53" s="25"/>
+      <c r="J53" s="23"/>
       <c r="K53" s="12"/>
       <c r="L53" s="15"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="23"/>
+      <c r="P53" s="21"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="8"/>
-      <c r="S53" s="23"/>
+      <c r="S53" s="21"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W53" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X53" s="6">
         <v>113</v>
       </c>
       <c r="Y53" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="19"/>
       <c r="B54" s="16">
         <f>SUBTOTAL(3,$C$2:C54)*1</f>
         <v>53</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>36</v>
+        <v>135</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="K54" s="12"/>
       <c r="L54" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P54" s="23"/>
+        <v>166</v>
+      </c>
+      <c r="P54" s="21"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="23" t="s">
-        <v>111</v>
+      <c r="S54" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="T54" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U54" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X54" s="6">
         <v>111</v>
       </c>
       <c r="Y54" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="19"/>
       <c r="B55" s="16">
         <f>SUBTOTAL(3,$C$2:C55)*1</f>
         <v>54</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -6358,41 +6357,41 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
-      <c r="J55" s="25"/>
+      <c r="J55" s="23"/>
       <c r="K55" s="12"/>
       <c r="L55" s="6"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="3"/>
-      <c r="P55" s="23"/>
+      <c r="P55" s="21"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="23"/>
+      <c r="S55" s="21"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X55" s="6">
         <v>112</v>
       </c>
       <c r="Y55" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="19"/>
       <c r="B56" s="16">
         <f>SUBTOTAL(3,$C$2:C56)*1</f>
         <v>55</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -6400,105 +6399,105 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="25"/>
+      <c r="J56" s="23"/>
       <c r="K56" s="12"/>
       <c r="L56" s="6"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="23"/>
+      <c r="P56" s="21"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="23"/>
+      <c r="S56" s="21"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X56" s="6">
         <v>113</v>
       </c>
       <c r="Y56" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="19"/>
       <c r="B57" s="16">
         <f>SUBTOTAL(3,$C$2:C57)*1</f>
         <v>56</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>38</v>
+        <v>134</v>
+      </c>
+      <c r="J57" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="K57" s="12"/>
       <c r="L57" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="M57" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="M57" s="19"/>
       <c r="N57" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="P57" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="P57" s="21"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="8"/>
-      <c r="S57" s="23"/>
+      <c r="S57" s="21"/>
       <c r="T57" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X57" s="6">
         <v>111</v>
       </c>
       <c r="Y57" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="19"/>
       <c r="B58" s="16">
         <f>SUBTOTAL(3,$C$2:C58)*1</f>
         <v>57</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -6506,41 +6505,41 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
-      <c r="J58" s="25"/>
+      <c r="J58" s="23"/>
       <c r="K58" s="12"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="21"/>
+      <c r="M58" s="19"/>
       <c r="N58" s="5"/>
       <c r="O58" s="4"/>
-      <c r="P58" s="23"/>
+      <c r="P58" s="21"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="23"/>
+      <c r="S58" s="21"/>
       <c r="T58" s="6"/>
       <c r="U58" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X58" s="6">
         <v>112</v>
       </c>
       <c r="Y58" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="19"/>
       <c r="B59" s="16">
         <f>SUBTOTAL(3,$C$2:C59)*1</f>
         <v>58</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -6548,107 +6547,107 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
-      <c r="J59" s="25"/>
+      <c r="J59" s="23"/>
       <c r="K59" s="12"/>
       <c r="L59" s="6"/>
-      <c r="M59" s="21"/>
+      <c r="M59" s="19"/>
       <c r="N59" s="5"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="23"/>
+      <c r="P59" s="21"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="8"/>
-      <c r="S59" s="23"/>
+      <c r="S59" s="21"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X59" s="6">
         <v>113</v>
       </c>
       <c r="Y59" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="19"/>
       <c r="B60" s="16">
         <f>SUBTOTAL(3,$C$2:C60)*1</f>
         <v>59</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>40</v>
+        <v>133</v>
+      </c>
+      <c r="J60" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="K60" s="12"/>
       <c r="L60" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="P60" s="23"/>
+        <v>169</v>
+      </c>
+      <c r="P60" s="21"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="8"/>
-      <c r="S60" s="23"/>
+      <c r="S60" s="21"/>
       <c r="T60" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U60" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X60" s="6">
         <v>111</v>
       </c>
       <c r="Y60" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="19"/>
       <c r="B61" s="16">
         <f>SUBTOTAL(3,$C$2:C61)*1</f>
         <v>60</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
@@ -6656,41 +6655,41 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
-      <c r="J61" s="25"/>
+      <c r="J61" s="23"/>
       <c r="K61" s="12"/>
       <c r="L61" s="6"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="23"/>
+      <c r="P61" s="21"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="8"/>
-      <c r="S61" s="23"/>
+      <c r="S61" s="21"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X61" s="6">
         <v>112</v>
       </c>
       <c r="Y61" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="19"/>
       <c r="B62" s="16">
         <f>SUBTOTAL(3,$C$2:C62)*1</f>
         <v>61</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -6698,121 +6697,121 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
-      <c r="J62" s="25"/>
+      <c r="J62" s="23"/>
       <c r="K62" s="12"/>
       <c r="L62" s="6"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="23"/>
+      <c r="P62" s="21"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="8"/>
-      <c r="S62" s="23"/>
+      <c r="S62" s="21"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X62" s="6">
         <v>113</v>
       </c>
       <c r="Y62" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="19"/>
       <c r="B63" s="16">
         <f>SUBTOTAL(3,$C$2:C63)*1</f>
         <v>62</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>124</v>
+        <v>103</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="I63" s="6"/>
-      <c r="J63" s="25" t="s">
-        <v>42</v>
+      <c r="J63" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="K63" s="12"/>
       <c r="L63" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="S63" s="23" t="s">
-        <v>111</v>
+        <v>181</v>
+      </c>
+      <c r="S63" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U63" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X63" s="6">
         <v>111</v>
       </c>
       <c r="Y63" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="19"/>
       <c r="B64" s="16">
         <f>SUBTOTAL(3,$C$2:C64)*1</f>
         <v>63</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
       <c r="I64" s="6"/>
-      <c r="J64" s="25"/>
+      <c r="J64" s="23"/>
       <c r="K64" s="12"/>
       <c r="L64" s="6"/>
       <c r="M64" s="5"/>
@@ -6821,40 +6820,40 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="8"/>
-      <c r="S64" s="23"/>
+      <c r="S64" s="21"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V64" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X64" s="6">
         <v>112</v>
       </c>
       <c r="Y64" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="19"/>
       <c r="B65" s="16">
         <f>SUBTOTAL(3,$C$2:C65)*1</f>
         <v>64</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
       <c r="I65" s="6"/>
-      <c r="J65" s="25"/>
+      <c r="J65" s="23"/>
       <c r="K65" s="12"/>
       <c r="L65" s="6"/>
       <c r="M65" s="5"/>
@@ -6863,96 +6862,96 @@
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="23"/>
+      <c r="S65" s="21"/>
       <c r="T65" s="6"/>
       <c r="U65" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X65" s="6">
         <v>113</v>
       </c>
       <c r="Y65" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="19"/>
       <c r="B66" s="16">
         <f>SUBTOTAL(3,$C$2:C66)*1</f>
         <v>65</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="I66" s="6"/>
-      <c r="J66" s="25" t="s">
-        <v>45</v>
+      <c r="J66" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="K66" s="12"/>
       <c r="L66" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
-      <c r="O66" s="23"/>
+      <c r="O66" s="21"/>
       <c r="P66" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="S66" s="12"/>
       <c r="T66" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="U66" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X66" s="6">
         <v>111</v>
       </c>
       <c r="Y66" s="16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="19"/>
       <c r="B67" s="16">
         <f>SUBTOTAL(3,$C$2:C67)*1</f>
         <v>66</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -6960,41 +6959,41 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
-      <c r="J67" s="25"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="12"/>
       <c r="L67" s="6"/>
       <c r="M67" s="5"/>
       <c r="N67" s="5"/>
-      <c r="O67" s="23"/>
+      <c r="O67" s="21"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="8"/>
       <c r="S67" s="12"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X67" s="6">
         <v>112</v>
       </c>
       <c r="Y67" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="19"/>
       <c r="B68" s="16">
         <f>SUBTOTAL(3,$C$2:C68)*1</f>
         <v>67</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -7002,315 +7001,315 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
-      <c r="J68" s="25"/>
+      <c r="J68" s="23"/>
       <c r="K68" s="12"/>
       <c r="L68" s="6"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
-      <c r="O68" s="23"/>
+      <c r="O68" s="21"/>
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
       <c r="R68" s="8"/>
       <c r="S68" s="12"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X68" s="6">
         <v>113</v>
       </c>
       <c r="Y68" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="19"/>
       <c r="B69" s="16">
         <f>SUBTOTAL(3,$C$2:C69)*1</f>
         <v>68</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J69" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="J69" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M69" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K69" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="L69" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="N69" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O69" s="24" t="s">
-        <v>184</v>
+        <v>174</v>
+      </c>
+      <c r="O69" s="22" t="s">
+        <v>173</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="5"/>
-      <c r="R69" s="21"/>
+      <c r="R69" s="19"/>
       <c r="S69" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U69" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W69" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X69" s="6">
         <v>113</v>
       </c>
       <c r="Y69" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="19"/>
       <c r="B70" s="16">
         <f>SUBTOTAL(3,$C$2:C70)*1</f>
         <v>69</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="I70" s="6" t="s">
+      <c r="J70" s="23" t="s">
         <v>142</v>
-      </c>
-      <c r="J70" s="25" t="s">
-        <v>153</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M70" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="M70" s="19"/>
       <c r="N70" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="O70" s="24" t="s">
-        <v>187</v>
+        <v>175</v>
+      </c>
+      <c r="O70" s="22" t="s">
+        <v>176</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U70" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W70" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X70" s="6">
         <v>113</v>
       </c>
       <c r="Y70" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" s="22" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" s="20" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="19"/>
       <c r="B71" s="16">
         <f>SUBTOTAL(3,$C$2:C71)*1</f>
         <v>70</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E71" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F71" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J71" s="25"/>
+      <c r="J71" s="23"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="O71" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="P71" s="23"/>
+        <v>179</v>
+      </c>
+      <c r="O71" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P71" s="21"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="8"/>
       <c r="S71" s="8"/>
       <c r="T71" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="U71" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="W71" s="9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X71" s="6">
         <v>113</v>
       </c>
       <c r="Y71" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="12"/>
       <c r="B72" s="16">
         <f>SUBTOTAL(3,$C$2:C72)*1</f>
         <v>71</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N72" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O72" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="8"/>
       <c r="S72" s="8"/>
       <c r="T72" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="U72" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="V72" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W72" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X72" s="6">
         <v>111</v>
       </c>
-      <c r="Y72" s="23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y72" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12"/>
       <c r="B73" s="16">
         <f>SUBTOTAL(3,$C$2:C73)*1</f>
         <v>72</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="7"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="7"/>
@@ -7318,105 +7317,105 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
-      <c r="T73" s="23"/>
+      <c r="T73" s="21"/>
       <c r="U73" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="V73" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="W73" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X73" s="6">
         <v>112</v>
       </c>
       <c r="Y73" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12"/>
       <c r="B74" s="16">
         <f>SUBTOTAL(3,$C$2:C74)*1</f>
         <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G74" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I74" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="J74" s="31"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="H74" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I74" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="J74" s="33"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32" t="s">
-        <v>325</v>
-      </c>
       <c r="M74" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
-      <c r="T74" s="23" t="s">
-        <v>336</v>
+      <c r="T74" s="21" t="s">
+        <v>325</v>
       </c>
       <c r="U74" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V74" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="W74" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X74" s="6">
         <v>112</v>
       </c>
       <c r="Y74" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="12"/>
       <c r="B75" s="16">
         <f>SUBTOTAL(3,$C$2:C75)*1</f>
         <v>74</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="7"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
       <c r="M75" s="5"/>
       <c r="N75" s="4"/>
       <c r="O75" s="7"/>
@@ -7424,211 +7423,211 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
-      <c r="T75" s="23"/>
+      <c r="T75" s="21"/>
       <c r="U75" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V75" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="W75" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X75" s="6">
         <v>112</v>
       </c>
       <c r="Y75" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="12"/>
       <c r="B76" s="16">
         <f>SUBTOTAL(3,$C$2:C76)*1</f>
         <v>75</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I76" s="32"/>
-      <c r="J76" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
+        <v>332</v>
+      </c>
+      <c r="I76" s="30"/>
+      <c r="J76" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
       <c r="M76" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
-      <c r="T76" s="23" t="s">
-        <v>340</v>
+      <c r="T76" s="21" t="s">
+        <v>329</v>
       </c>
       <c r="U76" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V76" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="W76" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X76" s="6">
         <v>112</v>
       </c>
       <c r="Y76" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="12"/>
       <c r="B77" s="16">
         <f>SUBTOTAL(3,$C$2:C77)*1</f>
         <v>76</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32" t="s">
-        <v>326</v>
+        <v>310</v>
+      </c>
+      <c r="I77" s="30"/>
+      <c r="J77" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30" t="s">
+        <v>315</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
-      <c r="T77" s="23" t="s">
-        <v>338</v>
+      <c r="T77" s="21" t="s">
+        <v>327</v>
       </c>
       <c r="U77" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V77" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="W77" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X77" s="6">
         <v>112</v>
       </c>
       <c r="Y77" s="6" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="78" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="12"/>
       <c r="B78" s="16">
         <f>SUBTOTAL(3,$C$2:C78)*1</f>
         <v>77</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I78" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="J78" s="31"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O78" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="I78" s="32" t="s">
-        <v>329</v>
-      </c>
-      <c r="J78" s="33"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
-      <c r="T78" s="23" t="s">
-        <v>339</v>
+      <c r="T78" s="21" t="s">
+        <v>328</v>
       </c>
       <c r="U78" s="6" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="V78" s="6" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="W78" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="X78" s="6">
         <v>112</v>
       </c>
       <c r="Y78" s="6" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
